--- a/simulacion/Excel/1_Abril.xlsx
+++ b/simulacion/Excel/1_Abril.xlsx
@@ -8,22 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiovahn/Documents/Code/simulacion/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E338D4-E0B1-E34D-BEB0-FFD9E16312EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6999B75-D8A6-5E45-B0B7-E0D612289A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="2" xr2:uid="{7C3B8ACB-1994-7A45-96C6-900F8077F15E}"/>
+    <workbookView xWindow="29500" yWindow="2240" windowWidth="25600" windowHeight="15800" activeTab="2" xr2:uid="{7C3B8ACB-1994-7A45-96C6-900F8077F15E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$B$28:$B$33</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$C$28:$C$33</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet2!$B$28:$B$33</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet2!$C$28:$C$33</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1826,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E25" si="2">D20/$D$25</f>
+        <f t="shared" ref="E20:E24" si="2">D20/$D$25</f>
         <v>0.18</v>
       </c>
     </row>
@@ -2059,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567C698B-3FA8-6E4A-B77B-8233B0765853}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2118,7 +2112,7 @@
         <v>-2.1706484641638224</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D52" si="1">_xlfn.NORM.S.DIST(C3,TRUE)</f>
+        <f t="shared" ref="D3:D51" si="1">_xlfn.NORM.S.DIST(C3,TRUE)</f>
         <v>1.4978877814919684E-2</v>
       </c>
       <c r="E3">

--- a/simulacion/Excel/1_Abril.xlsx
+++ b/simulacion/Excel/1_Abril.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiovahn/Documents/Code/simulacion/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\CuartoSemestre\simulacion\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6999B75-D8A6-5E45-B0B7-E0D612289A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29500" yWindow="2240" windowWidth="25600" windowHeight="15800" activeTab="2" xr2:uid="{7C3B8ACB-1994-7A45-96C6-900F8077F15E}"/>
+    <workbookView xWindow="29505" yWindow="2235" windowWidth="25605" windowHeight="15795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>min</t>
   </si>
@@ -109,11 +109,32 @@
   <si>
     <t>distribucion normal</t>
   </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Ciclo 1</t>
+  </si>
+  <si>
+    <t>Ciclo 2</t>
+  </si>
+  <si>
+    <t>Ciclo 3</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>RANORM</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -123,12 +144,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,11 +170,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,7 +200,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -205,6 +239,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -308,7 +343,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1BF1-C64B-A55D-37449E1285AF}"/>
             </c:ext>
@@ -324,11 +359,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="393340288"/>
-        <c:axId val="393343904"/>
+        <c:axId val="119064040"/>
+        <c:axId val="244856264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="393340288"/>
+        <c:axId val="119064040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -371,7 +406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393343904"/>
+        <c:crossAx val="244856264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -379,7 +414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393343904"/>
+        <c:axId val="244856264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,7 +465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393340288"/>
+        <c:crossAx val="119064040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1042,7 +1077,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3613F3C-91DD-D749-9298-9BEF377F324A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3613F3C-91DD-D749-9298-9BEF377F324A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,16 +1394,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D7B8AC-D70F-A64D-9051-3EBD1F8CF0FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>30.9</v>
       </c>
@@ -1385,7 +1420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30.9</v>
       </c>
@@ -1402,7 +1437,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>33.299999999999997</v>
       </c>
@@ -1419,7 +1454,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>33.5</v>
       </c>
@@ -1436,7 +1471,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>35.200000000000003</v>
       </c>
@@ -1453,7 +1488,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>37.799999999999997</v>
       </c>
@@ -1470,7 +1505,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25.8</v>
       </c>
@@ -1487,7 +1522,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28.1</v>
       </c>
@@ -1504,7 +1539,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26.2</v>
       </c>
@@ -1521,7 +1556,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>29.3</v>
       </c>
@@ -1544,16 +1579,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873843BD-FA85-0040-897C-DFEEF33C90B8}">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="118" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A31" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>30.9</v>
       </c>
@@ -1570,7 +1605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>30.9</v>
       </c>
@@ -1587,7 +1622,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>33.299999999999997</v>
       </c>
@@ -1604,7 +1639,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>33.5</v>
       </c>
@@ -1621,7 +1656,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>35.200000000000003</v>
       </c>
@@ -1638,7 +1673,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>37.799999999999997</v>
       </c>
@@ -1655,7 +1690,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25.8</v>
       </c>
@@ -1672,7 +1707,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28.1</v>
       </c>
@@ -1689,7 +1724,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26.2</v>
       </c>
@@ -1706,7 +1741,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>29.3</v>
       </c>
@@ -1723,7 +1758,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1767,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -1741,7 +1776,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -1761,20 +1796,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>ROUND(C15,2)</f>
         <v>2.48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="2"/>
       <c r="D18" t="s">
         <v>6</v>
       </c>
@@ -1782,7 +1817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>0.5*(B19+C19)</f>
         <v>24.14</v>
@@ -1803,7 +1838,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ref="A20:A24" si="0">0.5*(B20+C20)</f>
         <v>26.630000000000003</v>
@@ -1824,7 +1859,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>29.120000000000005</v>
@@ -1845,7 +1880,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>31.610000000000003</v>
@@ -1866,7 +1901,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>34.099999999999994</v>
@@ -1887,7 +1922,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>36.589999999999989</v>
@@ -1908,7 +1943,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>SUM(D19:D24)</f>
         <v>50</v>
@@ -1918,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -1929,7 +1964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>24.14</v>
       </c>
@@ -1941,7 +1976,7 @@
         <v>29.465355240000044</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26.630000000000003</v>
       </c>
@@ -1953,7 +1988,7 @@
         <v>8.6330192400000119</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29.120000000000005</v>
       </c>
@@ -1965,7 +2000,7 @@
         <v>0.20088323999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>31.610000000000003</v>
       </c>
@@ -1977,7 +2012,7 @@
         <v>4.1689472399999943</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>34.099999999999994</v>
       </c>
@@ -1989,7 +2024,7 @@
         <v>20.537211239999909</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>36.589999999999989</v>
       </c>
@@ -2001,7 +2036,7 @@
         <v>49.305675239999786</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2013,7 +2048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2022,7 +2057,7 @@
         <v>29.393999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2031,13 +2066,31 @@
         <v>8.6032587599999868</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
       <c r="B40">
         <f>SQRT(B39)</f>
         <v>2.9331312210673404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <f>ROUND(B36,2)</f>
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <f>ROUND(B40,2)</f>
+        <v>2.93</v>
       </c>
     </row>
   </sheetData>
@@ -2050,16 +2103,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567C698B-3FA8-6E4A-B77B-8233B0765853}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>17</v>
       </c>
@@ -2076,7 +2129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2100,7 +2153,7 @@
         <v>1.1511958822721567E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2124,7 +2177,7 @@
         <v>5.0211221850803168E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2148,7 +2201,7 @@
         <v>3.690819175075577E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2172,7 +2225,7 @@
         <v>7.8732533481081987E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2196,7 +2249,7 @@
         <v>2.924529311809157E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2220,7 +2273,7 @@
         <v>6.1487385990686982E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2244,7 +2297,7 @@
         <v>2.0302379951559327E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2268,7 +2321,7 @@
         <v>2.7820208550435099E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2292,7 +2345,7 @@
         <v>3.4259107698430796E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2316,7 +2369,7 @@
         <v>5.4259107698430786E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2340,7 +2393,7 @@
         <v>7.4259107698430804E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2364,7 +2417,7 @@
         <v>2.8864658945090327E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2388,7 +2441,7 @@
         <v>3.4025707272792083E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2412,7 +2465,7 @@
         <v>2.5508991001072179E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2436,7 +2489,7 @@
         <v>5.508991001072161E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2460,7 +2513,7 @@
         <v>2.7835426395898533E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2484,7 +2537,7 @@
         <v>1.0861411108438357E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2508,7 +2561,7 @@
         <v>3.0861411108438375E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2532,7 +2585,7 @@
         <v>1.3912236098988173E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2556,7 +2609,7 @@
         <v>3.3912236098988191E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2580,7 +2633,7 @@
         <v>4.123981654034975E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2604,7 +2657,7 @@
         <v>4.8409972713862104E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2628,7 +2681,7 @@
         <v>5.543586904130271E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2652,7 +2705,7 @@
         <v>4.9109925901879958E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2676,7 +2729,7 @@
         <v>5.5786670604823341E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2700,7 +2753,7 @@
         <v>3.5354616636291525E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2724,7 +2777,7 @@
         <v>4.1774421628620162E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2748,7 +2801,7 @@
         <v>3.4553858174928953E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2772,7 +2825,7 @@
         <v>5.4553858174928971E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2796,7 +2849,7 @@
         <v>7.4553858174928878E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2820,7 +2873,7 @@
         <v>8.0945162407162874E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2844,7 +2897,7 @@
         <v>4.6888923098398094E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2868,7 +2921,7 @@
         <v>6.6888923098398112E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2892,7 +2945,7 @@
         <v>1.628589805624292E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2916,7 +2969,7 @@
         <v>3.7141019437570977E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2940,7 +2993,7 @@
         <v>4.6051571879073272E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2964,7 +3017,7 @@
         <v>6.7748902148824008E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2988,7 +3041,7 @@
         <v>5.7511221603371077E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3012,7 +3065,7 @@
         <v>4.7000008579973884E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3036,7 +3089,7 @@
         <v>2.7000008579973866E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3060,7 +3113,7 @@
         <v>3.3798064516851412E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3084,7 +3137,7 @@
         <v>1.3798064516851505E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3108,7 +3161,7 @@
         <v>3.9814790170992986E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3132,7 +3185,7 @@
         <v>1.9814790170992969E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3156,7 +3209,7 @@
         <v>1.9101844951610603E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3180,7 +3233,7 @@
         <v>1.0640531452066893E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3204,7 +3257,7 @@
         <v>3.9721085507844478E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3228,7 +3281,7 @@
         <v>1.7296185530702557E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3252,7 +3305,7 @@
         <v>1.2879983206439904E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3276,7 +3329,7 @@
         <v>1.7540468087013927E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>21</v>
       </c>
@@ -3285,7 +3338,7 @@
         <v>0.10094516240716289</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>22</v>
       </c>
@@ -3294,7 +3347,7 @@
         <v>8.0945162407162874E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>23</v>
       </c>
@@ -3303,7 +3356,7 @@
         <v>0.10094516240716289</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>24</v>
       </c>
@@ -3312,25 +3365,290 @@
         <v>0.7249150685439848</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B51">
+  <sortState ref="B2:B51">
     <sortCondition ref="B2:B51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.44586392390835861</v>
+      </c>
+      <c r="C3">
+        <v>0.89065139702663909</v>
+      </c>
+      <c r="D3">
+        <v>0.9545749368836175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.61689047580409129</v>
+      </c>
+      <c r="C4">
+        <v>0.38612633844669209</v>
+      </c>
+      <c r="D4">
+        <v>0.86152504587143353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.63327256452544689</v>
+      </c>
+      <c r="C5">
+        <v>0.70733807198440557</v>
+      </c>
+      <c r="D5">
+        <v>7.8638199400339226E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.36039201502694673</v>
+      </c>
+      <c r="C6">
+        <v>1.705530644250175E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.20081650937321338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.45076500034341682</v>
+      </c>
+      <c r="C7">
+        <v>0.24586491342825501</v>
+      </c>
+      <c r="D7">
+        <v>0.44294340629129669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.40345041570754492</v>
+      </c>
+      <c r="C8">
+        <v>0.49071954597725387</v>
+      </c>
+      <c r="D8">
+        <v>5.0644981517795506E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.3602538974061282E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.1342641236802754</v>
+      </c>
+      <c r="D9">
+        <v>0.44886749980110208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.73273132553598219</v>
+      </c>
+      <c r="C10">
+        <v>0.33844280987891517</v>
+      </c>
+      <c r="D10">
+        <v>0.62888681483388809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5.6951605192447685E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.73559227261420923</v>
+      </c>
+      <c r="D11">
+        <v>3.3892774559654115E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.55558007644540575</v>
+      </c>
+      <c r="C12">
+        <v>7.3545045981637136E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.83491629953413238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8.6007368597979306E-2</v>
+      </c>
+      <c r="C13">
+        <v>6.441940117486622E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.83311668944936379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>8.4662964609521607E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.60355400790700608</v>
+      </c>
+      <c r="D14">
+        <v>0.96365798459808738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B3:B14)</f>
+        <v>4.4501702746712031</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:D15" si="0">SUM(C3:C14)</f>
+        <v>4.687573234542656</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>6.3324811421139229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <f>B15-6</f>
+        <v>-1.5498297253287969</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:D16" si="1">C15-6</f>
+        <v>-1.312426765457344</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.33248114211392288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <f>29.57+2.93*B16</f>
+        <v>25.028998904786626</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:D17" si="2">29.57+2.93*C16</f>
+        <v>25.724589577209983</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>30.544169746393795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4">
+        <f>ROUND(B17,2)</f>
+        <v>25.03</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" ref="C18:D18" si="3">ROUND(C17,2)</f>
+        <v>25.72</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="3"/>
+        <v>30.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>